--- a/data/BppTrend/BOE Equipment Index Factors and Percent Good Factors Sample.xlsx
+++ b/data/BppTrend/BOE Equipment Index Factors and Percent Good Factors Sample.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\SanMateo\Sprint\Sprint2\BPP\TestData\Updated Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="7" r:id="rId1"/>
-    <sheet name="Agricultural Index" sheetId="8" r:id="rId2"/>
-    <sheet name="Commercial Equipment Index" sheetId="1" r:id="rId3"/>
+    <sheet name="Commercial Equipment Index" sheetId="1" r:id="rId2"/>
+    <sheet name="Agricultural Index" sheetId="8" r:id="rId3"/>
     <sheet name="Construction Index" sheetId="3" r:id="rId4"/>
     <sheet name="Machinery and Equipment Index" sheetId="2" r:id="rId5"/>
     <sheet name="M&amp;E Good Factors" sheetId="4" r:id="rId6"/>
@@ -22,9 +22,9 @@
     <sheet name="Agricultural ME Good Factors" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc52329889" localSheetId="5">'M&amp;E Good Factors'!$AC$9</definedName>
+    <definedName name="_Toc52329889" localSheetId="5">'M&amp;E Good Factors'!$AC$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Tabs</t>
   </si>
@@ -54,16 +54,13 @@
     <t>Commercial Equipment Index Factor Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: BOE Handbook-AH581- Year: 2019 - TABLE 1: Commercial Equipment Index Factors - Page 3 - </t>
+    <t>Source: BOE</t>
   </si>
   <si>
     <t>Sheet 2</t>
   </si>
   <si>
     <t>Agricultural Index Factor Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: BOE Handbook-AH581- Year: 2019 - TABLE 3: Agricultural And Construction Equipment Index Factors - Page 10- </t>
   </si>
   <si>
     <t>Sheet 3</t>
@@ -78,16 +75,10 @@
     <t>Machinery and Equipment Index Factor Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: BOE Handbook-AH581- Year: 2019 - TABLE 2: Industrial Machinery and Equipment Index Factors - Page 8 - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sheet 5 </t>
   </si>
   <si>
     <t>M &amp; E Percent Good Factor Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: BOE Handbook-AH581- Year: 2019 - TABLE 4: Machinery and Equipment Percent Good Factors - Page 12 - </t>
   </si>
   <si>
     <t xml:space="preserve">Sheet 6 </t>
@@ -96,25 +87,19 @@
     <t>Construction ME Percent Good Factor Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: BOE Handbook-AH581- Year: 2019 - TABLE 5: Construction Mobile Equipment Percent Good Factors - Page 14 - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sheet 7 </t>
   </si>
   <si>
     <t>Agricultural ME Percent Good Factor Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: BOE Handbook-AH581- Year: 2019 - TABLE 6: Agricultural Mobile Equipment Percent Good Factors - Page 15 - </t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Agricultural</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Agricultural</t>
   </si>
   <si>
     <t>Construction</t>
@@ -182,6 +167,9 @@
   <si>
     <t>Harvesters - Average</t>
   </si>
+  <si>
+    <t>sd</t>
+  </si>
 </sst>
 </file>
 
@@ -238,6 +226,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,27 +237,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -277,7 +251,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -301,17 +275,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -326,12 +289,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,102 +603,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="25.5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.5">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="25.5">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -750,10 +690,508 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="3">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="2">
+        <v>106</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="2">
+        <v>107</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="2">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="2">
+        <v>109</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="2">
+        <v>112</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="2">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="2">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="2">
+        <v>118</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="2">
+        <v>122</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="2">
+        <v>128</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="2">
+        <v>133</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="2">
+        <v>142</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B18" s="2">
+        <v>147</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="2">
+        <v>149</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B20" s="2">
+        <v>150</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="2">
+        <v>151</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>1999</v>
+      </c>
+      <c r="B22" s="2">
+        <v>154</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B23" s="2">
+        <v>154</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>1997</v>
+      </c>
+      <c r="B24" s="2">
+        <v>156</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B25" s="2">
+        <v>158</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>1995</v>
+      </c>
+      <c r="B26" s="2">
+        <v>161</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>1994</v>
+      </c>
+      <c r="B27" s="2">
+        <v>166</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>1993</v>
+      </c>
+      <c r="B28" s="2">
+        <v>171</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>1992</v>
+      </c>
+      <c r="B29" s="2">
+        <v>174</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B30" s="2">
+        <v>177</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B31" s="2">
+        <v>180</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>1989</v>
+      </c>
+      <c r="B32" s="2">
+        <v>185</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>1988</v>
+      </c>
+      <c r="B33" s="2">
+        <v>195</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>1987</v>
+      </c>
+      <c r="B34" s="2">
+        <v>203</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>1986</v>
+      </c>
+      <c r="B35" s="2">
+        <v>206</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>1985</v>
+      </c>
+      <c r="B36" s="2">
+        <v>209</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>1984</v>
+      </c>
+      <c r="B37" s="2">
+        <v>212</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>1983</v>
+      </c>
+      <c r="B38" s="2">
+        <v>218</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="5"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="5"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="5"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -766,335 +1204,294 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="8">
+        <v>105</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8">
         <v>2018</v>
       </c>
-      <c r="B2" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7">
+      <c r="B3" s="8">
+        <v>104</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
         <v>2017</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B15" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B18" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B19" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B20" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B22" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B23" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B24" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B25" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B26" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B27" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B29" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B30" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B31" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B32" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B33" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B34" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B35" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B36" s="2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6">
-        <v>1983</v>
-      </c>
-      <c r="B37" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6">
-        <v>1982</v>
-      </c>
-      <c r="B38" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6">
-        <v>1981</v>
-      </c>
-      <c r="B39" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6">
-        <v>1980</v>
-      </c>
-      <c r="B40" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6">
-        <v>1979</v>
-      </c>
-      <c r="B41" s="2">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,521 +1501,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1">
-      <c r="A2" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="3">
-        <v>100</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B3" s="3">
-        <v>104</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="2">
-        <v>106</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="2">
-        <v>106</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="2">
-        <v>107</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="2">
-        <v>108</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="2">
-        <v>109</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="2">
-        <v>112</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="2">
-        <v>115</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="2">
-        <v>115</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="2">
-        <v>118</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B13" s="2">
-        <v>122</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B15" s="2">
-        <v>133</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6">
-        <v>2004</v>
-      </c>
-      <c r="B16" s="2">
-        <v>142</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B17" s="2">
-        <v>147</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B18" s="2">
-        <v>149</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B19" s="2">
-        <v>150</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B20" s="2">
-        <v>151</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6">
-        <v>1999</v>
-      </c>
-      <c r="B21" s="2">
-        <v>154</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6">
-        <v>1998</v>
-      </c>
-      <c r="B22" s="2">
-        <v>154</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6">
-        <v>1997</v>
-      </c>
-      <c r="B23" s="2">
-        <v>156</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6">
-        <v>1996</v>
-      </c>
-      <c r="B24" s="2">
-        <v>158</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6">
-        <v>1995</v>
-      </c>
-      <c r="B25" s="2">
-        <v>161</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6">
-        <v>1994</v>
-      </c>
-      <c r="B26" s="2">
-        <v>166</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6">
-        <v>1993</v>
-      </c>
-      <c r="B27" s="2">
-        <v>171</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6">
-        <v>1992</v>
-      </c>
-      <c r="B28" s="2">
-        <v>174</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6">
-        <v>1991</v>
-      </c>
-      <c r="B29" s="2">
-        <v>177</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6">
-        <v>1990</v>
-      </c>
-      <c r="B30" s="2">
-        <v>180</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6">
-        <v>1989</v>
-      </c>
-      <c r="B31" s="2">
-        <v>185</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6">
-        <v>1988</v>
-      </c>
-      <c r="B32" s="2">
-        <v>195</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6">
-        <v>1987</v>
-      </c>
-      <c r="B33" s="2">
-        <v>203</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6">
-        <v>1986</v>
-      </c>
-      <c r="B34" s="2">
-        <v>206</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6">
-        <v>1985</v>
-      </c>
-      <c r="B35" s="2">
-        <v>209</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6">
-        <v>1984</v>
-      </c>
-      <c r="B36" s="2">
-        <v>212</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="6">
-        <v>1983</v>
-      </c>
-      <c r="B37" s="2">
-        <v>218</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>1982</v>
-      </c>
-      <c r="B38" s="2">
-        <v>223</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>1981</v>
-      </c>
-      <c r="B39" s="2">
-        <v>233</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>1980</v>
-      </c>
-      <c r="B40" s="2">
-        <v>256</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>1979</v>
-      </c>
-      <c r="B41" s="2">
-        <v>279</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1630,31 +1518,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
         <v>2018</v>
       </c>
-      <c r="B2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7">
+      <c r="B3" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
         <v>2017</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6">
-        <v>2016</v>
       </c>
       <c r="B4" s="2">
         <v>100</v>
@@ -1662,55 +1550,55 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="2">
         <v>115</v>
@@ -1718,246 +1606,254 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B15" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B18" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B19" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B20" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B22" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6">
-        <v>1997</v>
-      </c>
-      <c r="B23" s="2">
-        <v>154</v>
+        <v>1998</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B24" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B25" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B26" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B27" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B29" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B30" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B31" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B32" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B33" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B34" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B35" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B36" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B37" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B38" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B39" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B40" s="2">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6">
+        <v>1980</v>
+      </c>
+      <c r="B41" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="6">
         <v>1979</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
+    <row r="43" spans="1:2">
+      <c r="A43" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1969,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1984,39 +1880,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
         <v>2018</v>
       </c>
-      <c r="B2" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B3" s="6">
-        <v>103</v>
+      <c r="B3" s="8">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="6">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="6">
         <v>105</v>
@@ -2024,55 +1920,55 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" s="6">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="6">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12" s="6">
         <v>113</v>
@@ -2080,47 +1976,47 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="6">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="6">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B15" s="6">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" s="6">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17" s="6">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B18" s="6">
         <v>134</v>
@@ -2128,198 +2024,206 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B19" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B20" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B22" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B23" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B24" s="6">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B25" s="6">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B26" s="6">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B27" s="6">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28" s="6">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B29" s="6">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B30" s="6">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B31" s="6">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B32" s="6">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B33" s="6">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B34" s="6">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B35" s="6">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B36" s="6">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B37" s="6">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B38" s="6">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B39" s="6">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B40" s="6">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6">
+        <v>1980</v>
+      </c>
+      <c r="B41" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="6">
         <v>1979</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B42" s="6">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="4"/>
-    </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2331,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2343,7 +2247,9 @@
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="2.85546875" style="1" customWidth="1"/>
-    <col min="16" max="23" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.140625" style="1"/>
@@ -2358,10 +2264,10 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8">
         <v>3</v>
@@ -2427,113 +2333,92 @@
         <v>40</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="8">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <v>55</v>
+      </c>
+      <c r="E2" s="9">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2">
+        <v>82</v>
+      </c>
+      <c r="J2" s="9">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2">
+        <v>86</v>
+      </c>
+      <c r="L2" s="2">
+        <v>88</v>
+      </c>
+      <c r="M2" s="2">
+        <v>89</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+      <c r="O2" s="9">
+        <v>92</v>
+      </c>
+      <c r="P2" s="2">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>95</v>
+      </c>
+      <c r="R2" s="9">
+        <v>97</v>
+      </c>
+      <c r="S2" s="2">
+        <v>98</v>
+      </c>
+      <c r="T2" s="9">
+        <v>99</v>
+      </c>
+      <c r="U2" s="9">
+        <v>99</v>
+      </c>
+      <c r="V2" s="9">
+        <v>99</v>
+      </c>
+      <c r="W2" s="9">
+        <v>99</v>
+      </c>
+      <c r="X2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3">
         <v>2018</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>67</v>
-      </c>
-      <c r="D2" s="12">
-        <v>75</v>
-      </c>
-      <c r="E2" s="13">
-        <v>80</v>
-      </c>
-      <c r="F2" s="12">
-        <v>84</v>
-      </c>
-      <c r="G2" s="12">
-        <v>87</v>
-      </c>
-      <c r="H2" s="12">
-        <v>89</v>
-      </c>
-      <c r="I2" s="12">
-        <v>90</v>
-      </c>
-      <c r="J2" s="13">
-        <v>91</v>
-      </c>
-      <c r="K2" s="12">
-        <v>92</v>
-      </c>
-      <c r="L2" s="12">
-        <v>93</v>
-      </c>
-      <c r="M2" s="12">
-        <v>94</v>
-      </c>
-      <c r="N2" s="12">
-        <v>94</v>
-      </c>
-      <c r="O2" s="13">
-        <v>95</v>
-      </c>
-      <c r="P2" s="12">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>96</v>
-      </c>
-      <c r="R2" s="13">
-        <v>97</v>
-      </c>
-      <c r="S2" s="12">
-        <v>97</v>
-      </c>
-      <c r="T2" s="13">
-        <v>98</v>
-      </c>
-      <c r="U2" s="13">
-        <v>98</v>
-      </c>
-      <c r="V2" s="13">
-        <v>99</v>
-      </c>
-      <c r="W2" s="13">
-        <v>99</v>
-      </c>
-      <c r="X2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>2018</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="7">
-        <v>2017</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -2544,7 +2429,7 @@
       <c r="D3" s="2">
         <v>52</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="9">
         <v>61</v>
       </c>
       <c r="F3" s="2">
@@ -2559,7 +2444,7 @@
       <c r="I3" s="2">
         <v>80</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <v>82</v>
       </c>
       <c r="K3" s="2">
@@ -2574,7 +2459,7 @@
       <c r="N3" s="2">
         <v>88</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="9">
         <v>89</v>
       </c>
       <c r="P3" s="2">
@@ -2583,49 +2468,34 @@
       <c r="Q3" s="2">
         <v>92</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="9">
         <v>93</v>
       </c>
       <c r="S3" s="2">
         <v>94</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="9">
         <v>95</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="9">
         <v>96</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="9">
         <v>97</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="9">
         <v>98</v>
       </c>
       <c r="X3" s="6">
         <v>2</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="7">
         <v>2017</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="6">
-        <v>2016</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -2636,7 +2506,7 @@
       <c r="D4" s="2">
         <v>32</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>44</v>
       </c>
       <c r="F4" s="2">
@@ -2651,7 +2521,7 @@
       <c r="I4" s="2">
         <v>70</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>73</v>
       </c>
       <c r="K4" s="2">
@@ -2666,7 +2536,7 @@
       <c r="N4" s="2">
         <v>82</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="9">
         <v>84</v>
       </c>
       <c r="P4" s="2">
@@ -2675,34 +2545,49 @@
       <c r="Q4" s="2">
         <v>88</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="9">
         <v>89</v>
       </c>
       <c r="S4" s="2">
         <v>91</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="9">
         <v>93</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="9">
         <v>95</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="9">
         <v>96</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="9">
         <v>97</v>
       </c>
       <c r="X4" s="6">
         <v>3</v>
       </c>
       <c r="Y4" s="6">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -2713,7 +2598,7 @@
       <c r="D5" s="2">
         <v>17</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>29</v>
       </c>
       <c r="F5" s="2">
@@ -2728,7 +2613,7 @@
       <c r="I5" s="2">
         <v>60</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>64</v>
       </c>
       <c r="K5" s="2">
@@ -2743,7 +2628,7 @@
       <c r="N5" s="2">
         <v>76</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="9">
         <v>78</v>
       </c>
       <c r="P5" s="2">
@@ -2752,56 +2637,34 @@
       <c r="Q5" s="2">
         <v>83</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="9">
         <v>86</v>
       </c>
       <c r="S5" s="2">
         <v>88</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="9">
         <v>90</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="9">
         <v>93</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="9">
         <v>94</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="9">
         <v>96</v>
       </c>
       <c r="X5" s="6">
         <v>4</v>
       </c>
       <c r="Y5" s="6">
-        <v>2015</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>67</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>100</v>
-      </c>
-      <c r="AG5" s="1">
-        <f>AE5*AF5/100</f>
-        <v>67</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -2810,7 +2673,7 @@
       <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>17</v>
       </c>
       <c r="F6" s="2">
@@ -2825,7 +2688,7 @@
       <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>55</v>
       </c>
       <c r="K6" s="2">
@@ -2840,7 +2703,7 @@
       <c r="N6" s="2">
         <v>70</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="9">
         <v>73</v>
       </c>
       <c r="P6" s="2">
@@ -2849,56 +2712,56 @@
       <c r="Q6" s="2">
         <v>79</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="9">
         <v>82</v>
       </c>
       <c r="S6" s="2">
         <v>84</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="9">
         <v>87</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="9">
         <v>91</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="9">
         <v>93</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="9">
         <v>94</v>
       </c>
       <c r="X6" s="6">
         <v>5</v>
       </c>
       <c r="Y6" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB6" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="AC6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="1">
         <v>3</v>
       </c>
       <c r="AE6" s="1">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AF6" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AG6" s="1">
         <f>AE6*AF6/100</f>
-        <v>38.479999999999997</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -2907,7 +2770,7 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" s="2">
@@ -2922,7 +2785,7 @@
       <c r="I7" s="2">
         <v>41</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>47</v>
       </c>
       <c r="K7" s="2">
@@ -2937,7 +2800,7 @@
       <c r="N7" s="2">
         <v>64</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="9">
         <v>67</v>
       </c>
       <c r="P7" s="2">
@@ -2946,63 +2809,63 @@
       <c r="Q7" s="2">
         <v>74</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="9">
         <v>78</v>
       </c>
       <c r="S7" s="2">
         <v>81</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="9">
         <v>84</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="9">
         <v>88</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="9">
         <v>91</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="9">
         <v>93</v>
       </c>
       <c r="X7" s="6">
         <v>6</v>
       </c>
       <c r="Y7" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB7" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AC7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="1">
         <v>3</v>
       </c>
       <c r="AE7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>106</v>
+        <v>37</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>104</v>
       </c>
       <c r="AG7" s="1">
         <f>AE7*AF7/100</f>
-        <v>10.6</v>
+        <v>38.479999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>5</v>
       </c>
       <c r="F8" s="2">
@@ -3017,7 +2880,7 @@
       <c r="I8" s="2">
         <v>32</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>39</v>
       </c>
       <c r="K8" s="2">
@@ -3032,7 +2895,7 @@
       <c r="N8" s="2">
         <v>58</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="9">
         <v>61</v>
       </c>
       <c r="P8" s="2">
@@ -3041,35 +2904,38 @@
       <c r="Q8" s="2">
         <v>70</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="9">
         <v>74</v>
       </c>
       <c r="S8" s="2">
         <v>77</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="9">
         <v>81</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="9">
         <v>86</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="9">
         <v>90</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="9">
         <v>92</v>
       </c>
       <c r="X8" s="6">
         <v>7</v>
       </c>
       <c r="Y8" s="6">
-        <v>2012</v>
+        <v>2013</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AB8" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="AC8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="1">
         <v>3</v>
@@ -3081,19 +2947,20 @@
         <v>106</v>
       </c>
       <c r="AG8" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="12.75" customHeight="1">
+        <f>AE8*AF8/100</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>1</v>
       </c>
       <c r="F9" s="2">
@@ -3108,7 +2975,7 @@
       <c r="I9" s="2">
         <v>25</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>31</v>
       </c>
       <c r="K9" s="2">
@@ -3123,7 +2990,7 @@
       <c r="N9" s="2">
         <v>52</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="9">
         <v>56</v>
       </c>
       <c r="P9" s="2">
@@ -3132,50 +2999,59 @@
       <c r="Q9" s="2">
         <v>65</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="9">
         <v>70</v>
       </c>
       <c r="S9" s="2">
         <v>74</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="9">
         <v>78</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="9">
         <v>84</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="9">
         <v>88</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="9">
         <v>91</v>
       </c>
       <c r="X9" s="6">
         <v>8</v>
       </c>
       <c r="Y9" s="6">
-        <v>2011</v>
-      </c>
-      <c r="AC9" s="15">
-        <v>5</v>
+        <v>2012</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>3</v>
       </c>
       <c r="AE9" s="1">
         <v>10</v>
       </c>
+      <c r="AF9" s="2">
+        <v>106</v>
+      </c>
       <c r="AG9" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="12.75" customHeight="1">
       <c r="A10" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -3188,7 +3064,7 @@
       <c r="I10" s="2">
         <v>19</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>25</v>
       </c>
       <c r="K10" s="2">
@@ -3203,7 +3079,7 @@
       <c r="N10" s="2">
         <v>46</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="9">
         <v>50</v>
       </c>
       <c r="P10" s="2">
@@ -3212,33 +3088,32 @@
       <c r="Q10" s="2">
         <v>60</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="9">
         <v>66</v>
       </c>
       <c r="S10" s="2">
         <v>70</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="9">
         <v>75</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="9">
         <v>82</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="9">
         <v>86</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="9">
         <v>89</v>
       </c>
       <c r="X10" s="6">
         <v>9</v>
       </c>
       <c r="Y10" s="6">
-        <v>2010</v>
-      </c>
-      <c r="AA10" s="1">
-        <f>1.25*5</f>
-        <v>6.25</v>
+        <v>2011</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>5</v>
       </c>
       <c r="AE10" s="1">
         <v>10</v>
@@ -3247,16 +3122,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" ht="12.75" customHeight="1">
       <c r="A11" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>4</v>
@@ -3267,7 +3142,7 @@
       <c r="I11" s="2">
         <v>14</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>19</v>
       </c>
       <c r="K11" s="2">
@@ -3282,7 +3157,7 @@
       <c r="N11" s="2">
         <v>40</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="9">
         <v>45</v>
       </c>
       <c r="P11" s="2">
@@ -3291,32 +3166,33 @@
       <c r="Q11" s="2">
         <v>56</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="9">
         <v>61</v>
       </c>
       <c r="S11" s="2">
         <v>66</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="9">
         <v>72</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="9">
         <v>79</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="9">
         <v>84</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="9">
         <v>88</v>
       </c>
       <c r="X11" s="6">
         <v>10</v>
       </c>
       <c r="Y11" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="AA11" s="1">
-        <v>6</v>
+        <f>1.25*5</f>
+        <v>6.25</v>
       </c>
       <c r="AE11" s="1">
         <v>10</v>
@@ -3327,14 +3203,14 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>1</v>
@@ -3345,7 +3221,7 @@
       <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>15</v>
       </c>
       <c r="K12" s="2">
@@ -3360,7 +3236,7 @@
       <c r="N12" s="2">
         <v>35</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="9">
         <v>39</v>
       </c>
       <c r="P12" s="2">
@@ -3369,29 +3245,32 @@
       <c r="Q12" s="2">
         <v>51</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="9">
         <v>57</v>
       </c>
       <c r="S12" s="2">
         <v>63</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="9">
         <v>69</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="9">
         <v>77</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="9">
         <v>83</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="9">
         <v>87</v>
       </c>
       <c r="X12" s="6">
         <v>11</v>
       </c>
       <c r="Y12" s="6">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>6</v>
       </c>
       <c r="AE12" s="1">
         <v>10</v>
@@ -3402,14 +3281,14 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="6">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
@@ -3418,7 +3297,7 @@
       <c r="I13" s="2">
         <v>7</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <v>11</v>
       </c>
       <c r="K13" s="2">
@@ -3433,7 +3312,7 @@
       <c r="N13" s="2">
         <v>29</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="9">
         <v>34</v>
       </c>
       <c r="P13" s="2">
@@ -3442,31 +3321,31 @@
       <c r="Q13" s="2">
         <v>46</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="9">
         <v>53</v>
       </c>
       <c r="S13" s="2">
         <v>59</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="9">
         <v>66</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="9">
         <v>75</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="9">
         <v>81</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="9">
         <v>85</v>
       </c>
       <c r="X13" s="6">
         <v>12</v>
       </c>
       <c r="Y13" s="6">
-        <v>2007</v>
-      </c>
-      <c r="AC13" s="1">
+        <v>2008</v>
+      </c>
+      <c r="AE13" s="1">
         <v>10</v>
       </c>
       <c r="AG13" s="1">
@@ -3475,21 +3354,21 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="9">
         <v>8</v>
       </c>
       <c r="K14" s="2">
@@ -3504,7 +3383,7 @@
       <c r="N14" s="2">
         <v>25</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="9">
         <v>29</v>
       </c>
       <c r="P14" s="2">
@@ -3513,29 +3392,32 @@
       <c r="Q14" s="2">
         <v>42</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="9">
         <v>49</v>
       </c>
       <c r="S14" s="2">
         <v>55</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="9">
         <v>63</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="9">
         <v>72</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="9">
         <v>79</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="9">
         <v>84</v>
       </c>
       <c r="X14" s="6">
         <v>13</v>
       </c>
       <c r="Y14" s="6">
-        <v>2006</v>
+        <v>2007</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>10</v>
       </c>
       <c r="AG14" s="1">
         <v>11</v>
@@ -3543,21 +3425,21 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="6">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>6</v>
       </c>
       <c r="K15" s="2">
@@ -3572,7 +3454,7 @@
       <c r="N15" s="2">
         <v>21</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="9">
         <v>25</v>
       </c>
       <c r="P15" s="2">
@@ -3581,46 +3463,49 @@
       <c r="Q15" s="2">
         <v>38</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="9">
         <v>45</v>
       </c>
       <c r="S15" s="2">
         <v>51</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="9">
         <v>59</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="9">
         <v>70</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="9">
         <v>77</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="9">
         <v>82</v>
       </c>
       <c r="X15" s="6">
         <v>14</v>
       </c>
       <c r="Y15" s="6">
-        <v>2005</v>
+        <v>2006</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="14">
+      <c r="J16" s="9">
         <v>3</v>
       </c>
       <c r="K16" s="2">
@@ -3635,7 +3520,7 @@
       <c r="N16" s="2">
         <v>17</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="9">
         <v>21</v>
       </c>
       <c r="P16" s="2">
@@ -3644,46 +3529,46 @@
       <c r="Q16" s="2">
         <v>33</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="9">
         <v>41</v>
       </c>
       <c r="S16" s="2">
         <v>48</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="9">
         <v>56</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="9">
         <v>67</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="9">
         <v>75</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="9">
         <v>80</v>
       </c>
       <c r="X16" s="6">
         <v>15</v>
       </c>
       <c r="Y16" s="6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="6">
         <v>2004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="14.25">
-      <c r="A17" s="6">
-        <v>2003</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="14">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
       <c r="K17" s="2">
@@ -3698,7 +3583,7 @@
       <c r="N17" s="2">
         <v>14</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="9">
         <v>18</v>
       </c>
       <c r="P17" s="2">
@@ -3707,56 +3592,46 @@
       <c r="Q17" s="2">
         <v>29</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="9">
         <v>37</v>
       </c>
       <c r="S17" s="2">
         <v>44</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="9">
         <v>53</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="9">
         <v>64</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="9">
         <v>73</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="9">
         <v>79</v>
       </c>
       <c r="X17" s="6">
         <v>16</v>
       </c>
       <c r="Y17" s="6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="14.25">
+      <c r="A18" s="6">
         <v>2003</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="AC17" s="16">
-        <f>4</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33">
-      <c r="A18" s="6">
-        <v>2002</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="2">
         <v>2</v>
       </c>
@@ -3769,7 +3644,7 @@
       <c r="N18" s="2">
         <v>12</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="9">
         <v>15</v>
       </c>
       <c r="P18" s="2">
@@ -3778,52 +3653,56 @@
       <c r="Q18" s="2">
         <v>26</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="9">
         <v>33</v>
       </c>
       <c r="S18" s="2">
         <v>40</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="9">
         <v>50</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="9">
         <v>62</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="9">
         <v>71</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W18" s="9">
         <v>77</v>
       </c>
       <c r="X18" s="6">
         <v>17</v>
       </c>
       <c r="Y18" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB18" s="1">
-        <v>10</v>
+        <v>3.75</v>
+      </c>
+      <c r="AC18" s="11">
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="6">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="14"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
         <v>3</v>
@@ -3834,7 +3713,7 @@
       <c r="N19" s="2">
         <v>9</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="9">
         <v>13</v>
       </c>
       <c r="P19" s="2">
@@ -3843,46 +3722,52 @@
       <c r="Q19" s="2">
         <v>23</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="9">
         <v>30</v>
       </c>
       <c r="S19" s="2">
         <v>37</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="9">
         <v>46</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="9">
         <v>59</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="9">
         <v>68</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="9">
         <v>76</v>
       </c>
       <c r="X19" s="6">
         <v>18</v>
       </c>
       <c r="Y19" s="6">
-        <v>2001</v>
+        <v>2002</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="6">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
         <v>1</v>
@@ -3893,7 +3778,7 @@
       <c r="N20" s="2">
         <v>7</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="9">
         <v>10</v>
       </c>
       <c r="P20" s="2">
@@ -3902,46 +3787,46 @@
       <c r="Q20" s="2">
         <v>19</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="9">
         <v>27</v>
       </c>
       <c r="S20" s="2">
         <v>34</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="9">
         <v>43</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="9">
         <v>56</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="9">
         <v>66</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W20" s="9">
         <v>74</v>
       </c>
       <c r="X20" s="6">
         <v>19</v>
       </c>
       <c r="Y20" s="6">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="6">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2">
@@ -3950,7 +3835,7 @@
       <c r="N21" s="2">
         <v>5</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="9">
         <v>9</v>
       </c>
       <c r="P21" s="2">
@@ -3959,63 +3844,53 @@
       <c r="Q21" s="2">
         <v>17</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="9">
         <v>24</v>
       </c>
       <c r="S21" s="2">
         <v>30</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="9">
         <v>40</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="9">
         <v>54</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="9">
         <v>64</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="9">
         <v>72</v>
       </c>
       <c r="X21" s="6">
         <v>20</v>
       </c>
       <c r="Y21" s="6">
-        <v>1999</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>2012</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AD21" s="1">
-        <f>AC21*11/100</f>
-        <v>110</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="6">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="14"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2">
         <v>4</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="9">
         <v>7</v>
       </c>
       <c r="P22" s="2">
@@ -4024,32 +3899,32 @@
       <c r="Q22" s="2">
         <v>14</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="9">
         <v>21</v>
       </c>
       <c r="S22" s="2">
         <v>27</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="9">
         <v>37</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="9">
         <v>51</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="9">
         <v>62</v>
       </c>
-      <c r="W22" s="14">
+      <c r="W22" s="9">
         <v>70</v>
       </c>
       <c r="X22" s="6">
         <v>21</v>
       </c>
       <c r="Y22" s="6">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="AB22" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="AC22" s="1">
         <v>1000</v>
@@ -4061,26 +3936,26 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="6">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="14"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
         <v>2</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="9">
         <v>4</v>
       </c>
       <c r="P23" s="2">
@@ -4089,51 +3964,61 @@
       <c r="Q23" s="2">
         <v>13</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="9">
         <v>18</v>
       </c>
       <c r="S23" s="2">
         <v>25</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T23" s="9">
         <v>34</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="9">
         <v>48</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="9">
         <v>60</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W23" s="9">
         <v>68</v>
       </c>
       <c r="X23" s="6">
         <v>22</v>
       </c>
       <c r="Y23" s="6">
-        <v>1997</v>
+        <v>1998</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>2011</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AD23" s="1">
+        <f>AC23*11/100</f>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="6">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="14">
+      <c r="O24" s="9">
         <v>3</v>
       </c>
       <c r="P24" s="2">
@@ -4142,51 +4027,51 @@
       <c r="Q24" s="2">
         <v>11</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="9">
         <v>16</v>
       </c>
       <c r="S24" s="2">
         <v>22</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="9">
         <v>31</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="9">
         <v>45</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="9">
         <v>57</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W24" s="9">
         <v>66</v>
       </c>
       <c r="X24" s="6">
         <v>23</v>
       </c>
       <c r="Y24" s="6">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="6">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="14">
+      <c r="O25" s="9">
         <v>1</v>
       </c>
       <c r="P25" s="2">
@@ -4195,52 +4080,52 @@
       <c r="Q25" s="2">
         <v>9</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="9">
         <v>14</v>
       </c>
       <c r="S25" s="2">
         <v>20</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="9">
         <v>29</v>
       </c>
-      <c r="U25" s="14">
+      <c r="U25" s="9">
         <v>43</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="9">
         <v>55</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W25" s="9">
         <v>65</v>
       </c>
       <c r="X25" s="6">
         <v>24</v>
       </c>
       <c r="Y25" s="6">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="6">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="14" t="s">
-        <v>39</v>
+      <c r="O26" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="P26" s="2">
         <v>5</v>
@@ -4248,334 +4133,329 @@
       <c r="Q26" s="2">
         <v>7</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="9">
         <v>13</v>
       </c>
       <c r="S26" s="2">
         <v>17</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="9">
         <v>26</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="9">
         <v>40</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="9">
         <v>53</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W26" s="9">
         <v>63</v>
       </c>
       <c r="X26" s="6">
         <v>25</v>
       </c>
       <c r="Y26" s="6">
-        <v>1994</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>34</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="6">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="14"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="2">
         <v>3</v>
       </c>
       <c r="Q27" s="2">
         <v>6</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="9">
         <v>11</v>
       </c>
       <c r="S27" s="2">
         <v>16</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="9">
         <v>24</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="9">
         <v>38</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="9">
         <v>50</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W27" s="9">
         <v>61</v>
       </c>
       <c r="X27" s="6">
         <v>26</v>
       </c>
       <c r="Y27" s="6">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB27" s="8">
-        <v>2018</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>15</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>95</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG27" s="1">
-        <f>AE27*AF27/100</f>
-        <v>95</v>
+      <c r="AB27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="6">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="2">
         <v>1</v>
       </c>
       <c r="Q28" s="2">
         <v>4</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="9">
         <v>9</v>
       </c>
       <c r="S28" s="2">
         <v>13</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="9">
         <v>22</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="9">
         <v>35</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="9">
         <v>48</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="9">
         <v>59</v>
       </c>
       <c r="X28" s="6">
         <v>27</v>
       </c>
       <c r="Y28" s="6">
-        <v>1992</v>
-      </c>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="2"/>
+        <v>1993</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>2018</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>95</v>
+      </c>
       <c r="AF28" s="2">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="AG28" s="1">
+        <f>AE28*AF28/100</f>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="6">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="14"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="14"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2">
         <v>2</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="9">
         <v>8</v>
       </c>
       <c r="S29" s="2">
         <v>12</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T29" s="9">
         <v>20</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="9">
         <v>33</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="9">
         <v>46</v>
       </c>
-      <c r="W29" s="14">
+      <c r="W29" s="9">
         <v>57</v>
       </c>
       <c r="X29" s="6">
         <v>28</v>
       </c>
       <c r="Y29" s="6">
-        <v>1991</v>
-      </c>
-      <c r="AB29" s="6"/>
+        <v>1992</v>
+      </c>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="2"/>
       <c r="AF29" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="6">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="14"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="14"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2">
         <v>1</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="9">
         <v>6</v>
       </c>
       <c r="S30" s="2">
         <v>10</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T30" s="9">
         <v>18</v>
       </c>
-      <c r="U30" s="14">
+      <c r="U30" s="9">
         <v>30</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="9">
         <v>43</v>
       </c>
-      <c r="W30" s="14">
+      <c r="W30" s="9">
         <v>55</v>
       </c>
       <c r="X30" s="6">
         <v>29</v>
       </c>
       <c r="Y30" s="6">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="2"/>
       <c r="AF30" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="6">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="14"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="14"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="14">
+      <c r="R31" s="9">
         <v>4</v>
       </c>
       <c r="S31" s="2">
         <v>9</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="9">
         <v>16</v>
       </c>
-      <c r="U31" s="14">
+      <c r="U31" s="9">
         <v>28</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="9">
         <v>41</v>
       </c>
-      <c r="W31" s="14">
+      <c r="W31" s="9">
         <v>53</v>
       </c>
       <c r="X31" s="6">
         <v>30</v>
       </c>
       <c r="Y31" s="6">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="2"/>
@@ -4585,447 +4465,456 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="6">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="14"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="14"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="14">
+      <c r="R32" s="9">
         <v>3</v>
       </c>
       <c r="S32" s="2">
         <v>7</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="9">
         <v>15</v>
       </c>
-      <c r="U32" s="14">
+      <c r="U32" s="9">
         <v>26</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="9">
         <v>39</v>
       </c>
-      <c r="W32" s="14">
+      <c r="W32" s="9">
         <v>51</v>
       </c>
       <c r="X32" s="6">
         <v>31</v>
       </c>
       <c r="Y32" s="6">
-        <v>1988</v>
+        <v>1989</v>
+      </c>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="2"/>
+      <c r="AF32" s="2">
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="6">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="14"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="14">
+      <c r="R33" s="9">
         <v>1</v>
       </c>
       <c r="S33" s="2">
         <v>6</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="9">
         <v>13</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="9">
         <v>24</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="9">
         <v>37</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W33" s="9">
         <v>49</v>
       </c>
       <c r="X33" s="6">
         <v>32</v>
       </c>
       <c r="Y33" s="6">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="6">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="14"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="14"/>
+      <c r="R34" s="9"/>
       <c r="S34" s="2">
         <v>5</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="9">
         <v>12</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U34" s="9">
         <v>23</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="9">
         <v>35</v>
       </c>
-      <c r="W34" s="14">
+      <c r="W34" s="9">
         <v>46</v>
       </c>
       <c r="X34" s="6">
         <v>33</v>
       </c>
       <c r="Y34" s="6">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="6">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="14"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="14"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="14"/>
+      <c r="R35" s="9"/>
       <c r="S35" s="2">
         <v>3</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="9">
         <v>10</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="9">
         <v>21</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="9">
         <v>33</v>
       </c>
-      <c r="W35" s="14">
+      <c r="W35" s="9">
         <v>45</v>
       </c>
       <c r="X35" s="6">
         <v>34</v>
       </c>
       <c r="Y35" s="6">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="6">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="14"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="14"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="14"/>
+      <c r="R36" s="9"/>
       <c r="S36" s="2">
         <v>2</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="9">
         <v>9</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U36" s="9">
         <v>19</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="9">
         <v>31</v>
       </c>
-      <c r="W36" s="14">
+      <c r="W36" s="9">
         <v>42</v>
       </c>
       <c r="X36" s="6">
         <v>35</v>
       </c>
       <c r="Y36" s="6">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="6">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="14"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="14"/>
+      <c r="R37" s="9"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="14">
+      <c r="T37" s="9">
         <v>7</v>
       </c>
-      <c r="U37" s="14">
+      <c r="U37" s="9">
         <v>18</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="9">
         <v>28</v>
       </c>
-      <c r="W37" s="14">
+      <c r="W37" s="9">
         <v>41</v>
       </c>
       <c r="X37" s="6">
         <v>36</v>
       </c>
       <c r="Y37" s="6">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="6">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="14"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="14"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="14"/>
+      <c r="R38" s="9"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="14">
+      <c r="T38" s="9">
         <v>6</v>
       </c>
-      <c r="U38" s="14">
+      <c r="U38" s="9">
         <v>16</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="9">
         <v>27</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W38" s="9">
         <v>38</v>
       </c>
       <c r="X38" s="6">
         <v>37</v>
       </c>
       <c r="Y38" s="6">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="6">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="14"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="14"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="14"/>
+      <c r="R39" s="9"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="14">
+      <c r="T39" s="9">
         <v>4</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U39" s="9">
         <v>14</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="9">
         <v>25</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W39" s="9">
         <v>37</v>
       </c>
       <c r="X39" s="6">
         <v>38</v>
       </c>
       <c r="Y39" s="6">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="14"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="14"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="14"/>
+      <c r="R40" s="9"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="14">
+      <c r="T40" s="9">
         <v>3</v>
       </c>
-      <c r="U40" s="14">
+      <c r="U40" s="9">
         <v>14</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="9">
         <v>24</v>
       </c>
-      <c r="W40" s="14">
+      <c r="W40" s="9">
         <v>35</v>
       </c>
       <c r="X40" s="6">
         <v>39</v>
       </c>
       <c r="Y40" s="6">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="6">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="14"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="14"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="14"/>
+      <c r="R41" s="9"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="14">
+      <c r="T41" s="9">
         <v>2</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U41" s="9">
         <v>12</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="9">
         <v>22</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="9">
         <v>33</v>
       </c>
       <c r="X41" s="6">
         <v>40</v>
       </c>
       <c r="Y41" s="6">
-        <v>1979</v>
-      </c>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="6"/>
+      <c r="Y42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5036,10 +4925,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5050,41 +4939,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>81</v>
+      </c>
+      <c r="E2">
         <v>74</v>
-      </c>
-      <c r="D2">
-        <v>91</v>
-      </c>
-      <c r="E2">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5101,319 +4990,342 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4">
+        <v>81</v>
+      </c>
+      <c r="E4">
         <v>74</v>
-      </c>
-      <c r="E4">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
         <v>62</v>
-      </c>
-      <c r="E6">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
         <v>47</v>
-      </c>
-      <c r="E9">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
         <v>43</v>
-      </c>
-      <c r="E10">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
         <v>29</v>
-      </c>
-      <c r="E14">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
         <v>27</v>
-      </c>
-      <c r="E15">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16">
         <v>25</v>
-      </c>
-      <c r="E16">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
         <v>23</v>
-      </c>
-      <c r="E17">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1998</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
         <v>9</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5423,10 +5335,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5443,58 +5355,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>30</v>
+      <c r="I1" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H2">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5502,28 +5414,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G3">
+        <v>67</v>
+      </c>
+      <c r="H3">
         <v>78</v>
-      </c>
-      <c r="H3">
-        <v>71</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -5531,28 +5443,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>76</v>
+      </c>
+      <c r="F4">
         <v>64</v>
       </c>
-      <c r="D4">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4">
-        <v>57</v>
-      </c>
       <c r="G4">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -5560,28 +5472,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>69</v>
+      </c>
+      <c r="H5">
         <v>63</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>55</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -5589,28 +5501,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -5618,28 +5530,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -5647,28 +5559,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
         <v>42</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>46</v>
-      </c>
-      <c r="F8">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>40</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -5676,28 +5588,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -5705,28 +5617,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -5734,28 +5646,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>33</v>
-      </c>
-      <c r="F11">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>26</v>
-      </c>
       <c r="H11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -5763,28 +5675,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -5792,28 +5704,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>28</v>
-      </c>
       <c r="F13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13">
+        <v>23</v>
+      </c>
+      <c r="H13">
         <v>21</v>
-      </c>
-      <c r="H13">
-        <v>19</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -5821,28 +5733,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
         <v>28</v>
       </c>
-      <c r="E14">
-        <v>26</v>
-      </c>
       <c r="F14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>13</v>
@@ -5850,22 +5762,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
         <v>26</v>
       </c>
-      <c r="E15">
-        <v>24</v>
+      <c r="F15">
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
       </c>
       <c r="I15">
         <v>14</v>
@@ -5873,22 +5791,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>54</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -5896,36 +5820,57 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>65</v>
       </c>
       <c r="G17">
         <v>14</v>
       </c>
+      <c r="H17">
+        <v>56</v>
+      </c>
       <c r="I17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
       <c r="D18">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>54</v>
       </c>
       <c r="I18">
         <v>17</v>
@@ -5933,13 +5878,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
       <c r="D19">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="F19" s="15">
+        <v>76</v>
+      </c>
+      <c r="G19" s="15">
+        <v>87</v>
+      </c>
+      <c r="H19">
+        <v>33</v>
       </c>
       <c r="I19">
         <v>18</v>
@@ -5947,13 +5907,60 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20" s="15">
+        <v>43</v>
+      </c>
+      <c r="G20" s="15">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>23</v>
+      </c>
       <c r="I20">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/BppTrend/BOE Equipment Index Factors and Percent Good Factors Sample.xlsx
+++ b/data/BppTrend/BOE Equipment Index Factors and Percent Good Factors Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Tabs</t>
   </si>
@@ -168,7 +168,10 @@
     <t>Harvesters - Average</t>
   </si>
   <si>
-    <t>sd</t>
+    <t>Junk_A</t>
+  </si>
+  <si>
+    <t>Junk_B</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -290,6 +293,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,13 +613,13 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -693,17 +699,17 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="12.453125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -711,23 +717,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13">
       <c r="A2" s="8">
         <v>2019</v>
       </c>
-      <c r="B2" s="8">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13">
       <c r="A3" s="8">
         <v>2018</v>
       </c>
-      <c r="B3" s="8">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13">
       <c r="A4" s="6">
         <v>2017</v>
       </c>
@@ -737,7 +743,7 @@
       <c r="C4" s="5"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="13">
       <c r="A5" s="6">
         <v>2016</v>
       </c>
@@ -747,7 +753,7 @@
       <c r="C5" s="5"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="13">
       <c r="A6" s="6">
         <v>2015</v>
       </c>
@@ -757,7 +763,7 @@
       <c r="C6" s="5"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="13">
       <c r="A7" s="6">
         <v>2014</v>
       </c>
@@ -767,7 +773,7 @@
       <c r="C7" s="5"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="13">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
@@ -777,7 +783,7 @@
       <c r="C8" s="5"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="13">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -787,7 +793,7 @@
       <c r="C9" s="5"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="13">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -797,7 +803,7 @@
       <c r="C10" s="5"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="13">
       <c r="A11" s="6">
         <v>2010</v>
       </c>
@@ -807,7 +813,7 @@
       <c r="C11" s="5"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="13">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
@@ -817,7 +823,7 @@
       <c r="C12" s="5"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="13">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -827,7 +833,7 @@
       <c r="C13" s="5"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="13">
       <c r="A14" s="6">
         <v>2007</v>
       </c>
@@ -837,7 +843,7 @@
       <c r="C14" s="5"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="13">
       <c r="A15" s="6">
         <v>2006</v>
       </c>
@@ -847,7 +853,7 @@
       <c r="C15" s="5"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="13">
       <c r="A16" s="6">
         <v>2005</v>
       </c>
@@ -857,7 +863,7 @@
       <c r="C16" s="5"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="13">
       <c r="A17" s="6">
         <v>2004</v>
       </c>
@@ -867,7 +873,7 @@
       <c r="C17" s="5"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="13">
       <c r="A18" s="6">
         <v>2003</v>
       </c>
@@ -877,7 +883,7 @@
       <c r="C18" s="5"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="13">
       <c r="A19" s="6">
         <v>2002</v>
       </c>
@@ -887,7 +893,7 @@
       <c r="C19" s="5"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="13">
       <c r="A20" s="6">
         <v>2001</v>
       </c>
@@ -897,7 +903,7 @@
       <c r="C20" s="5"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="13">
       <c r="A21" s="6">
         <v>2000</v>
       </c>
@@ -907,7 +913,7 @@
       <c r="C21" s="5"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="13">
       <c r="A22" s="6">
         <v>1999</v>
       </c>
@@ -917,7 +923,7 @@
       <c r="C22" s="5"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="13">
       <c r="A23" s="6">
         <v>1998</v>
       </c>
@@ -927,7 +933,7 @@
       <c r="C23" s="5"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="13">
       <c r="A24" s="6">
         <v>1997</v>
       </c>
@@ -937,7 +943,7 @@
       <c r="C24" s="5"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="13">
       <c r="A25" s="6">
         <v>1996</v>
       </c>
@@ -947,7 +953,7 @@
       <c r="C25" s="5"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="13">
       <c r="A26" s="6">
         <v>1995</v>
       </c>
@@ -957,7 +963,7 @@
       <c r="C26" s="5"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="13">
       <c r="A27" s="6">
         <v>1994</v>
       </c>
@@ -967,7 +973,7 @@
       <c r="C27" s="5"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="13">
       <c r="A28" s="6">
         <v>1993</v>
       </c>
@@ -977,7 +983,7 @@
       <c r="C28" s="5"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="13">
       <c r="A29" s="6">
         <v>1992</v>
       </c>
@@ -987,7 +993,7 @@
       <c r="C29" s="5"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="13">
       <c r="A30" s="6">
         <v>1991</v>
       </c>
@@ -997,7 +1003,7 @@
       <c r="C30" s="5"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="13">
       <c r="A31" s="6">
         <v>1990</v>
       </c>
@@ -1007,7 +1013,7 @@
       <c r="C31" s="5"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="13">
       <c r="A32" s="6">
         <v>1989</v>
       </c>
@@ -1017,7 +1023,7 @@
       <c r="C32" s="5"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="13">
       <c r="A33" s="6">
         <v>1988</v>
       </c>
@@ -1027,7 +1033,7 @@
       <c r="C33" s="5"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="13">
       <c r="A34" s="6">
         <v>1987</v>
       </c>
@@ -1037,7 +1043,7 @@
       <c r="C34" s="5"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="13">
       <c r="A35" s="6">
         <v>1986</v>
       </c>
@@ -1047,7 +1053,7 @@
       <c r="C35" s="5"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="13">
       <c r="A36" s="6">
         <v>1985</v>
       </c>
@@ -1057,7 +1063,7 @@
       <c r="C36" s="5"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="13">
       <c r="A37" s="6">
         <v>1984</v>
       </c>
@@ -1067,7 +1073,7 @@
       <c r="C37" s="5"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="13">
       <c r="A38" s="6">
         <v>1983</v>
       </c>
@@ -1077,105 +1083,105 @@
       <c r="C38" s="5"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="13">
       <c r="A39" s="6"/>
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="13">
       <c r="A40" s="6"/>
       <c r="B40" s="2"/>
       <c r="C40" s="5"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="13">
       <c r="A41" s="6"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="13">
       <c r="A42" s="6"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="13">
       <c r="A43" s="6"/>
       <c r="B43" s="2"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="13">
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="13">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="13">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="13">
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="13">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" ht="13">
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" ht="13">
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" ht="13">
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:3" ht="13">
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:3" ht="13">
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:3" ht="13">
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:3" ht="13">
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:3" ht="13">
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" ht="13">
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:3" ht="13">
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:3" ht="13">
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:3" ht="13">
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:3" ht="13">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:3" ht="13">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:3" ht="13">
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:3" ht="13">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" ht="13">
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" ht="13">
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" ht="13">
       <c r="C67" s="5"/>
     </row>
   </sheetData>
@@ -1191,18 +1197,18 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1211,21 +1217,21 @@
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="13">
       <c r="A2" s="8">
         <v>2019</v>
       </c>
-      <c r="B2" s="8">
-        <v>105</v>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="13">
       <c r="A3" s="8">
         <v>2018</v>
       </c>
-      <c r="B3" s="8">
-        <v>104</v>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -1505,18 +1511,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1524,20 +1528,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="13">
       <c r="A2" s="8">
         <v>2019</v>
       </c>
-      <c r="B2" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13">
       <c r="A3" s="8">
         <v>2018</v>
       </c>
-      <c r="B3" s="8">
-        <v>103</v>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1696,8 +1700,8 @@
       <c r="A23" s="6">
         <v>1998</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
+      <c r="B23" s="2">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1868,17 +1872,17 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1886,20 +1890,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="13">
       <c r="A2" s="8">
         <v>2019</v>
       </c>
-      <c r="B2" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13">
       <c r="A3" s="8">
         <v>2018</v>
       </c>
-      <c r="B3" s="8">
-        <v>105</v>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2238,31 +2242,32 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="2.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.81640625" style="1" customWidth="1"/>
     <col min="16" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="35.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="1"/>
+    <col min="27" max="27" width="35.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12.81640625" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="12.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="11.453125" style="1" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="16" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" ht="13">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2339,15 +2344,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" ht="13">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>39</v>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="2">
         <v>55</v>
@@ -2416,15 +2421,15 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" ht="13">
       <c r="A3">
         <v>2018</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>37</v>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="2">
         <v>52</v>
@@ -2493,7 +2498,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" ht="13">
       <c r="A4" s="7">
         <v>2017</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" ht="13">
       <c r="A5" s="6">
         <v>2016</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" ht="13">
       <c r="A6" s="6">
         <v>2015</v>
       </c>
@@ -2759,7 +2764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" ht="13">
       <c r="A7" s="6">
         <v>2014</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" ht="13">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" ht="13">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -3201,7 +3206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" ht="13">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
@@ -3279,7 +3284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" ht="13">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -3352,7 +3357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" ht="13">
       <c r="A14" s="6">
         <v>2007</v>
       </c>
@@ -3423,7 +3428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" ht="13">
       <c r="A15" s="6">
         <v>2006</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" ht="13">
       <c r="A16" s="6">
         <v>2005</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" ht="13">
       <c r="A17" s="6">
         <v>2004</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="14.25">
+    <row r="18" spans="1:33" ht="14">
       <c r="A18" s="6">
         <v>2003</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" ht="13">
       <c r="A19" s="6">
         <v>2002</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" ht="13">
       <c r="A20" s="6">
         <v>2001</v>
       </c>
@@ -3812,7 +3817,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" ht="13">
       <c r="A21" s="6">
         <v>2000</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" ht="13">
       <c r="A22" s="6">
         <v>1999</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" ht="13">
       <c r="A23" s="6">
         <v>1998</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" ht="13">
       <c r="A24" s="6">
         <v>1997</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" ht="13">
       <c r="A25" s="6">
         <v>1996</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" ht="13">
       <c r="A26" s="6">
         <v>1995</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" ht="13">
       <c r="A27" s="6">
         <v>1994</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" ht="13">
       <c r="A28" s="6">
         <v>1993</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" ht="13">
       <c r="A29" s="6">
         <v>1992</v>
       </c>
@@ -4357,7 +4362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" ht="13">
       <c r="A30" s="6">
         <v>1991</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" ht="13">
       <c r="A31" s="6">
         <v>1990</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" ht="13">
       <c r="A32" s="6">
         <v>1989</v>
       </c>
@@ -4515,7 +4520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" ht="13">
       <c r="A33" s="6">
         <v>1988</v>
       </c>
@@ -4562,7 +4567,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" ht="13">
       <c r="A34" s="6">
         <v>1987</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" ht="13">
       <c r="A35" s="6">
         <v>1986</v>
       </c>
@@ -4652,7 +4657,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" ht="13">
       <c r="A36" s="6">
         <v>1985</v>
       </c>
@@ -4697,7 +4702,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" ht="13">
       <c r="A37" s="6">
         <v>1984</v>
       </c>
@@ -4740,7 +4745,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" ht="13">
       <c r="A38" s="6">
         <v>1983</v>
       </c>
@@ -4783,7 +4788,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" ht="13">
       <c r="A39" s="6">
         <v>1982</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" ht="13">
       <c r="A40" s="6">
         <v>1981</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" ht="13">
       <c r="A41" s="6">
         <v>1980</v>
       </c>
@@ -4928,13 +4933,13 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4954,7 +4959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -4967,11 +4972,11 @@
       <c r="D2">
         <v>81</v>
       </c>
-      <c r="E2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -4984,8 +4989,8 @@
       <c r="D3">
         <v>81</v>
       </c>
-      <c r="E3">
-        <v>74</v>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5337,21 +5342,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5383,7 +5388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="13">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -5405,14 +5410,14 @@
       <c r="G2">
         <v>45</v>
       </c>
-      <c r="H2">
-        <v>67</v>
+      <c r="H2" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="13">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -5434,8 +5439,8 @@
       <c r="G3">
         <v>67</v>
       </c>
-      <c r="H3">
-        <v>78</v>
+      <c r="H3" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="I3">
         <v>2</v>
